--- a/artfynd/A 49509-2025 artfynd.xlsx
+++ b/artfynd/A 49509-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130577576</v>
       </c>
       <c r="B2" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>130577575</v>
       </c>
       <c r="B3" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>130577579</v>
       </c>
       <c r="B4" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
